--- a/dictionaries/core/2_6/2_6_non_rep.xlsx
+++ b/dictionaries/core/2_6/2_6_non_rep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmj541/Library/Mobile Documents/com~apple~CloudDocs/work/repos/ds-dictionaries-fork/dictionaries/core/2_5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/demetrisavraam/Desktop/GitHub/ds-dictionaries/dictionaries/core/2_6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{F1C25882-CFA2-A54F-BB73-0BCCD62DFAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31F453E8-AAD8-47EE-B2CB-A1AE22F13442}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5565B3-00C6-C14C-805E-1B8F7B69B3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="874">
   <si>
     <t>name</t>
   </si>
@@ -2262,9 +2262,6 @@
     <t>Spain</t>
   </si>
   <si>
-    <t>UnitedKingdom</t>
-  </si>
-  <si>
     <t>Born in country of cohort</t>
   </si>
   <si>
@@ -2653,13 +2650,22 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2760,9 +2766,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3066,20 +3072,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="125" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="A331" sqref="A331"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="197.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="197.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3093,7 +3099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3107,7 +3113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -3118,7 +3124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -3129,7 +3135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -3143,7 +3149,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -3157,7 +3163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -3171,7 +3177,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -3185,7 +3191,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -3199,7 +3205,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -3213,7 +3219,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -3227,7 +3233,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -3241,7 +3247,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -3255,7 +3261,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -3269,7 +3275,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -3283,7 +3289,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -3297,7 +3303,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -3311,7 +3317,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -3325,7 +3331,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -3339,7 +3345,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -3353,7 +3359,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
@@ -3367,7 +3373,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -3381,7 +3387,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
@@ -3395,7 +3401,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
@@ -3409,7 +3415,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -3423,7 +3429,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>60</v>
       </c>
@@ -3437,7 +3443,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>62</v>
       </c>
@@ -3451,7 +3457,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>64</v>
       </c>
@@ -3465,7 +3471,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>66</v>
       </c>
@@ -3479,7 +3485,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>68</v>
       </c>
@@ -3493,7 +3499,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
@@ -3507,7 +3513,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>72</v>
       </c>
@@ -3521,7 +3527,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>74</v>
       </c>
@@ -3535,7 +3541,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>76</v>
       </c>
@@ -3549,7 +3555,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>78</v>
       </c>
@@ -3563,7 +3569,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>80</v>
       </c>
@@ -3577,7 +3583,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>82</v>
       </c>
@@ -3591,7 +3597,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>84</v>
       </c>
@@ -3605,7 +3611,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>86</v>
       </c>
@@ -3619,7 +3625,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>88</v>
       </c>
@@ -3633,7 +3639,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>90</v>
       </c>
@@ -3647,7 +3653,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>92</v>
       </c>
@@ -3661,7 +3667,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>94</v>
       </c>
@@ -3675,7 +3681,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>96</v>
       </c>
@@ -3689,7 +3695,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>98</v>
       </c>
@@ -3703,7 +3709,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>100</v>
       </c>
@@ -3717,7 +3723,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>102</v>
       </c>
@@ -3731,7 +3737,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>104</v>
       </c>
@@ -3745,7 +3751,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>106</v>
       </c>
@@ -3759,7 +3765,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>108</v>
       </c>
@@ -3773,7 +3779,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>110</v>
       </c>
@@ -3787,7 +3793,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>112</v>
       </c>
@@ -3801,7 +3807,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>114</v>
       </c>
@@ -3815,7 +3821,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>116</v>
       </c>
@@ -3829,7 +3835,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>118</v>
       </c>
@@ -3843,7 +3849,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>120</v>
       </c>
@@ -3857,7 +3863,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>122</v>
       </c>
@@ -3871,7 +3877,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1">
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>124</v>
       </c>
@@ -3885,7 +3891,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1">
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>126</v>
       </c>
@@ -3899,7 +3905,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1">
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>128</v>
       </c>
@@ -3913,7 +3919,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1">
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>130</v>
       </c>
@@ -3927,7 +3933,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1">
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>132</v>
       </c>
@@ -3941,7 +3947,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1">
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>134</v>
       </c>
@@ -3955,7 +3961,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1">
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>136</v>
       </c>
@@ -3969,7 +3975,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1">
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>138</v>
       </c>
@@ -3983,7 +3989,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1">
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>140</v>
       </c>
@@ -3997,7 +4003,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1">
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>142</v>
       </c>
@@ -4011,7 +4017,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1">
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>144</v>
       </c>
@@ -4025,7 +4031,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1">
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>146</v>
       </c>
@@ -4039,7 +4045,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1">
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>148</v>
       </c>
@@ -4053,7 +4059,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1">
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>150</v>
       </c>
@@ -4067,7 +4073,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1">
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>152</v>
       </c>
@@ -4081,7 +4087,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1">
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>154</v>
       </c>
@@ -4095,7 +4101,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1">
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>156</v>
       </c>
@@ -4109,7 +4115,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1">
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>158</v>
       </c>
@@ -4123,7 +4129,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1">
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>160</v>
       </c>
@@ -4137,7 +4143,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1">
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>162</v>
       </c>
@@ -4151,7 +4157,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1">
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>164</v>
       </c>
@@ -4165,7 +4171,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1">
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>166</v>
       </c>
@@ -4179,7 +4185,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1">
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>168</v>
       </c>
@@ -4193,7 +4199,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1">
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>170</v>
       </c>
@@ -4207,7 +4213,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1">
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>172</v>
       </c>
@@ -4221,7 +4227,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1">
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>174</v>
       </c>
@@ -4235,7 +4241,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1">
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>176</v>
       </c>
@@ -4249,7 +4255,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1">
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>178</v>
       </c>
@@ -4263,7 +4269,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1">
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>180</v>
       </c>
@@ -4277,7 +4283,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1">
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>182</v>
       </c>
@@ -4291,7 +4297,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1">
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>184</v>
       </c>
@@ -4305,7 +4311,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1">
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>186</v>
       </c>
@@ -4319,7 +4325,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1">
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>189</v>
       </c>
@@ -4333,7 +4339,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1">
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>191</v>
       </c>
@@ -4347,7 +4353,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1">
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>193</v>
       </c>
@@ -4361,7 +4367,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1">
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>195</v>
       </c>
@@ -4375,7 +4381,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1">
+    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>197</v>
       </c>
@@ -4389,7 +4395,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1">
+    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>199</v>
       </c>
@@ -4403,7 +4409,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1">
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>201</v>
       </c>
@@ -4417,7 +4423,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1">
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>203</v>
       </c>
@@ -4431,7 +4437,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1">
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>205</v>
       </c>
@@ -4445,7 +4451,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1">
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>207</v>
       </c>
@@ -4459,7 +4465,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1">
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>209</v>
       </c>
@@ -4473,7 +4479,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1">
+    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>212</v>
       </c>
@@ -4487,7 +4493,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1">
+    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>214</v>
       </c>
@@ -4501,7 +4507,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1">
+    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>216</v>
       </c>
@@ -4515,7 +4521,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1">
+    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>218</v>
       </c>
@@ -4529,7 +4535,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1">
+    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>220</v>
       </c>
@@ -4543,7 +4549,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1">
+    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>223</v>
       </c>
@@ -4557,7 +4563,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1">
+    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>225</v>
       </c>
@@ -4571,7 +4577,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1">
+    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>227</v>
       </c>
@@ -4585,7 +4591,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1">
+    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>229</v>
       </c>
@@ -4599,7 +4605,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1">
+    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>231</v>
       </c>
@@ -4613,7 +4619,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1">
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>233</v>
       </c>
@@ -4627,7 +4633,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1">
+    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>235</v>
       </c>
@@ -4641,7 +4647,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1">
+    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>238</v>
       </c>
@@ -4655,7 +4661,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1">
+    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>240</v>
       </c>
@@ -4669,7 +4675,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1">
+    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>243</v>
       </c>
@@ -4683,7 +4689,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1">
+    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>245</v>
       </c>
@@ -4697,7 +4703,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1">
+    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>247</v>
       </c>
@@ -4711,7 +4717,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1">
+    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>249</v>
       </c>
@@ -4725,7 +4731,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1">
+    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>251</v>
       </c>
@@ -4739,7 +4745,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1">
+    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>253</v>
       </c>
@@ -4753,7 +4759,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1">
+    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>255</v>
       </c>
@@ -4767,7 +4773,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1">
+    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>257</v>
       </c>
@@ -4781,7 +4787,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1">
+    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>260</v>
       </c>
@@ -4795,7 +4801,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1">
+    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>262</v>
       </c>
@@ -4809,7 +4815,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1">
+    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>264</v>
       </c>
@@ -4823,7 +4829,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1">
+    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>266</v>
       </c>
@@ -4837,7 +4843,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1">
+    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>268</v>
       </c>
@@ -4851,7 +4857,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1">
+    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>271</v>
       </c>
@@ -4865,7 +4871,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1">
+    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>274</v>
       </c>
@@ -4879,7 +4885,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1">
+    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>276</v>
       </c>
@@ -4893,7 +4899,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1">
+    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>278</v>
       </c>
@@ -4907,7 +4913,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1">
+    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>280</v>
       </c>
@@ -4921,7 +4927,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1">
+    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>282</v>
       </c>
@@ -4935,7 +4941,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1">
+    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>284</v>
       </c>
@@ -4949,7 +4955,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1">
+    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>286</v>
       </c>
@@ -4963,7 +4969,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1">
+    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>288</v>
       </c>
@@ -4977,7 +4983,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1">
+    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>290</v>
       </c>
@@ -4991,7 +4997,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1">
+    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>292</v>
       </c>
@@ -5005,7 +5011,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1">
+    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>294</v>
       </c>
@@ -5019,7 +5025,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1">
+    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>296</v>
       </c>
@@ -5033,7 +5039,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1">
+    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>298</v>
       </c>
@@ -5047,7 +5053,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1">
+    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>300</v>
       </c>
@@ -5061,7 +5067,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1">
+    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>302</v>
       </c>
@@ -5075,7 +5081,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1">
+    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>304</v>
       </c>
@@ -5089,7 +5095,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1">
+    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>307</v>
       </c>
@@ -5103,7 +5109,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1">
+    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>310</v>
       </c>
@@ -5117,7 +5123,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1">
+    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>312</v>
       </c>
@@ -5131,7 +5137,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1">
+    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>315</v>
       </c>
@@ -5145,7 +5151,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1">
+    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>317</v>
       </c>
@@ -5159,7 +5165,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1">
+    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>320</v>
       </c>
@@ -5173,7 +5179,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15" customHeight="1">
+    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>322</v>
       </c>
@@ -5187,7 +5193,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15" customHeight="1">
+    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>324</v>
       </c>
@@ -5201,7 +5207,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1">
+    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>326</v>
       </c>
@@ -5215,7 +5221,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1">
+    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>327</v>
       </c>
@@ -5229,7 +5235,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1">
+    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>329</v>
       </c>
@@ -5243,7 +5249,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1">
+    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>331</v>
       </c>
@@ -5257,7 +5263,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1">
+    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>333</v>
       </c>
@@ -5271,7 +5277,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1">
+    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>335</v>
       </c>
@@ -5285,7 +5291,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1">
+    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>337</v>
       </c>
@@ -5299,7 +5305,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1">
+    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>340</v>
       </c>
@@ -5313,7 +5319,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1">
+    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>342</v>
       </c>
@@ -5327,7 +5333,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1">
+    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>344</v>
       </c>
@@ -5341,7 +5347,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1">
+    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>346</v>
       </c>
@@ -5355,7 +5361,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1">
+    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>348</v>
       </c>
@@ -5369,7 +5375,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1">
+    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>350</v>
       </c>
@@ -5383,7 +5389,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1">
+    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>352</v>
       </c>
@@ -5397,7 +5403,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1">
+    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>354</v>
       </c>
@@ -5411,7 +5417,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1">
+    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>356</v>
       </c>
@@ -5425,7 +5431,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1">
+    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>358</v>
       </c>
@@ -5439,7 +5445,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1">
+    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>360</v>
       </c>
@@ -5453,7 +5459,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1">
+    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>362</v>
       </c>
@@ -5467,7 +5473,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="15" customHeight="1">
+    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>365</v>
       </c>
@@ -5481,7 +5487,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15" customHeight="1">
+    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>367</v>
       </c>
@@ -5495,7 +5501,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15" customHeight="1">
+    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>370</v>
       </c>
@@ -5509,7 +5515,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15" customHeight="1">
+    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>372</v>
       </c>
@@ -5523,7 +5529,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15" customHeight="1">
+    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>374</v>
       </c>
@@ -5537,7 +5543,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15" customHeight="1">
+    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>376</v>
       </c>
@@ -5551,7 +5557,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15" customHeight="1">
+    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>379</v>
       </c>
@@ -5565,7 +5571,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15" customHeight="1">
+    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>381</v>
       </c>
@@ -5579,7 +5585,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15" customHeight="1">
+    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>383</v>
       </c>
@@ -5593,7 +5599,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15" customHeight="1">
+    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>386</v>
       </c>
@@ -5607,7 +5613,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15" customHeight="1">
+    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>388</v>
       </c>
@@ -5621,7 +5627,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15" customHeight="1">
+    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>390</v>
       </c>
@@ -5635,7 +5641,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15" customHeight="1">
+    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>392</v>
       </c>
@@ -5649,7 +5655,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15" customHeight="1">
+    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>394</v>
       </c>
@@ -5663,7 +5669,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15" customHeight="1">
+    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>396</v>
       </c>
@@ -5677,7 +5683,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1">
+    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>398</v>
       </c>
@@ -5691,7 +5697,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15" customHeight="1">
+    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>401</v>
       </c>
@@ -5705,7 +5711,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="15" customHeight="1">
+    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>404</v>
       </c>
@@ -5719,7 +5725,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="15" customHeight="1">
+    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>406</v>
       </c>
@@ -5733,7 +5739,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="15" customHeight="1">
+    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>409</v>
       </c>
@@ -5747,7 +5753,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="15" customHeight="1">
+    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>411</v>
       </c>
@@ -5761,7 +5767,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="15" customHeight="1">
+    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>413</v>
       </c>
@@ -5775,7 +5781,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="15" customHeight="1">
+    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>416</v>
       </c>
@@ -5789,7 +5795,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="15" customHeight="1">
+    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>418</v>
       </c>
@@ -5803,7 +5809,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="15" customHeight="1">
+    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>420</v>
       </c>
@@ -5817,7 +5823,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="15" customHeight="1">
+    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>422</v>
       </c>
@@ -5831,7 +5837,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="15" customHeight="1">
+    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>424</v>
       </c>
@@ -5845,7 +5851,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="15" customHeight="1">
+    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>426</v>
       </c>
@@ -5859,7 +5865,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="15" customHeight="1">
+    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>429</v>
       </c>
@@ -5873,7 +5879,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="15" customHeight="1">
+    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>431</v>
       </c>
@@ -5887,7 +5893,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="15" customHeight="1">
+    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>433</v>
       </c>
@@ -5901,7 +5907,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="15" customHeight="1">
+    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>435</v>
       </c>
@@ -5915,7 +5921,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="15" customHeight="1">
+    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>437</v>
       </c>
@@ -5929,7 +5935,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="15" customHeight="1">
+    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>440</v>
       </c>
@@ -5943,7 +5949,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="15" customHeight="1">
+    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>442</v>
       </c>
@@ -5957,7 +5963,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="15" customHeight="1">
+    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>444</v>
       </c>
@@ -5971,7 +5977,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="15" customHeight="1">
+    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>446</v>
       </c>
@@ -5985,7 +5991,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="15" customHeight="1">
+    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>448</v>
       </c>
@@ -5999,7 +6005,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="15" customHeight="1">
+    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>450</v>
       </c>
@@ -6013,7 +6019,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="15" customHeight="1">
+    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>452</v>
       </c>
@@ -6027,7 +6033,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="15" customHeight="1">
+    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>454</v>
       </c>
@@ -6041,7 +6047,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="15" customHeight="1">
+    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>456</v>
       </c>
@@ -6055,7 +6061,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="15" customHeight="1">
+    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>458</v>
       </c>
@@ -6069,7 +6075,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="15" customHeight="1">
+    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>460</v>
       </c>
@@ -6083,7 +6089,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="15" customHeight="1">
+    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>462</v>
       </c>
@@ -6097,7 +6103,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="15" customHeight="1">
+    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>464</v>
       </c>
@@ -6111,7 +6117,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="15" customHeight="1">
+    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>466</v>
       </c>
@@ -6125,7 +6131,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="15" customHeight="1">
+    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>468</v>
       </c>
@@ -6139,7 +6145,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="15" customHeight="1">
+    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>470</v>
       </c>
@@ -6153,7 +6159,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="15" customHeight="1">
+    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>472</v>
       </c>
@@ -6167,7 +6173,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="15" customHeight="1">
+    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>474</v>
       </c>
@@ -6181,7 +6187,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="15" customHeight="1">
+    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>476</v>
       </c>
@@ -6195,7 +6201,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="15" customHeight="1">
+    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>479</v>
       </c>
@@ -6209,7 +6215,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="15" customHeight="1">
+    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>481</v>
       </c>
@@ -6223,7 +6229,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="15" customHeight="1">
+    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>483</v>
       </c>
@@ -6237,7 +6243,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="15" customHeight="1">
+    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>485</v>
       </c>
@@ -6251,7 +6257,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="15" customHeight="1">
+    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>487</v>
       </c>
@@ -6265,7 +6271,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="15" customHeight="1">
+    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>489</v>
       </c>
@@ -6279,7 +6285,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="15" customHeight="1">
+    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>491</v>
       </c>
@@ -6293,7 +6299,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="15" customHeight="1">
+    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>493</v>
       </c>
@@ -6307,7 +6313,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="15" customHeight="1">
+    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>495</v>
       </c>
@@ -6321,7 +6327,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="15" customHeight="1">
+    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>497</v>
       </c>
@@ -6335,7 +6341,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="15" customHeight="1">
+    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>499</v>
       </c>
@@ -6349,7 +6355,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="15" customHeight="1">
+    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>501</v>
       </c>
@@ -6363,7 +6369,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="15" customHeight="1">
+    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>503</v>
       </c>
@@ -6377,7 +6383,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="15" customHeight="1">
+    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>505</v>
       </c>
@@ -6391,7 +6397,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="15" customHeight="1">
+    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>507</v>
       </c>
@@ -6405,7 +6411,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="15" customHeight="1">
+    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>509</v>
       </c>
@@ -6419,7 +6425,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="15" customHeight="1">
+    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>511</v>
       </c>
@@ -6433,7 +6439,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="15" customHeight="1">
+    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>513</v>
       </c>
@@ -6447,7 +6453,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="15" customHeight="1">
+    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>515</v>
       </c>
@@ -6461,7 +6467,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="15" customHeight="1">
+    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>517</v>
       </c>
@@ -6475,7 +6481,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="15" customHeight="1">
+    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>519</v>
       </c>
@@ -6489,7 +6495,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="15" customHeight="1">
+    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>521</v>
       </c>
@@ -6503,7 +6509,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="15" customHeight="1">
+    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>523</v>
       </c>
@@ -6517,7 +6523,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="15" customHeight="1">
+    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>525</v>
       </c>
@@ -6531,7 +6537,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="15" customHeight="1">
+    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>527</v>
       </c>
@@ -6545,7 +6551,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="15" customHeight="1">
+    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>529</v>
       </c>
@@ -6559,7 +6565,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="15" customHeight="1">
+    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>531</v>
       </c>
@@ -6573,7 +6579,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="15" customHeight="1">
+    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>533</v>
       </c>
@@ -6587,7 +6593,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="15" customHeight="1">
+    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>535</v>
       </c>
@@ -6601,7 +6607,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="15" customHeight="1">
+    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>537</v>
       </c>
@@ -6615,7 +6621,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="15" customHeight="1">
+    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>539</v>
       </c>
@@ -6629,7 +6635,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="15" customHeight="1">
+    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>541</v>
       </c>
@@ -6643,7 +6649,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="15" customHeight="1">
+    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>543</v>
       </c>
@@ -6657,7 +6663,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="15" customHeight="1">
+    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>545</v>
       </c>
@@ -6671,7 +6677,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="15" customHeight="1">
+    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>547</v>
       </c>
@@ -6685,7 +6691,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="15" customHeight="1">
+    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>549</v>
       </c>
@@ -6699,7 +6705,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="15" customHeight="1">
+    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>551</v>
       </c>
@@ -6713,7 +6719,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="15" customHeight="1">
+    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>553</v>
       </c>
@@ -6727,7 +6733,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="15" customHeight="1">
+    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>555</v>
       </c>
@@ -6741,7 +6747,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="15" customHeight="1">
+    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>557</v>
       </c>
@@ -6755,7 +6761,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="15" customHeight="1">
+    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>559</v>
       </c>
@@ -6769,7 +6775,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="15" customHeight="1">
+    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>562</v>
       </c>
@@ -6783,7 +6789,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="15" customHeight="1">
+    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>565</v>
       </c>
@@ -6797,7 +6803,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="15" customHeight="1">
+    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>568</v>
       </c>
@@ -6811,7 +6817,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="15" customHeight="1">
+    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>571</v>
       </c>
@@ -6825,7 +6831,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="15" customHeight="1">
+    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>573</v>
       </c>
@@ -6839,7 +6845,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="15" customHeight="1">
+    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>575</v>
       </c>
@@ -6853,7 +6859,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="15" customHeight="1">
+    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>577</v>
       </c>
@@ -6867,7 +6873,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="15" customHeight="1">
+    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>579</v>
       </c>
@@ -6881,7 +6887,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="15" customHeight="1">
+    <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>581</v>
       </c>
@@ -6895,7 +6901,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="15" customHeight="1">
+    <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>583</v>
       </c>
@@ -6909,7 +6915,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="15" customHeight="1">
+    <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>586</v>
       </c>
@@ -6923,7 +6929,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="15" customHeight="1">
+    <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>588</v>
       </c>
@@ -6937,7 +6943,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="15" customHeight="1">
+    <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>590</v>
       </c>
@@ -6951,7 +6957,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="15" customHeight="1">
+    <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>591</v>
       </c>
@@ -6965,7 +6971,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="15" customHeight="1">
+    <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>593</v>
       </c>
@@ -6979,7 +6985,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="15" customHeight="1">
+    <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>595</v>
       </c>
@@ -6993,7 +6999,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="15" customHeight="1">
+    <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>597</v>
       </c>
@@ -7007,7 +7013,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="15" customHeight="1">
+    <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>599</v>
       </c>
@@ -7021,7 +7027,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="15" customHeight="1">
+    <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>600</v>
       </c>
@@ -7035,7 +7041,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="15" customHeight="1">
+    <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>602</v>
       </c>
@@ -7049,7 +7055,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="15" customHeight="1">
+    <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>603</v>
       </c>
@@ -7063,7 +7069,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="15" customHeight="1">
+    <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>605</v>
       </c>
@@ -7077,7 +7083,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="15" customHeight="1">
+    <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>607</v>
       </c>
@@ -7091,7 +7097,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="15" customHeight="1">
+    <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>609</v>
       </c>
@@ -7105,7 +7111,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="15" customHeight="1">
+    <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>610</v>
       </c>
@@ -7119,7 +7125,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="15" customHeight="1">
+    <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>611</v>
       </c>
@@ -7133,7 +7139,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="15" customHeight="1">
+    <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>613</v>
       </c>
@@ -7147,7 +7153,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="15" customHeight="1">
+    <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>615</v>
       </c>
@@ -7161,7 +7167,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="15" customHeight="1">
+    <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>617</v>
       </c>
@@ -7175,7 +7181,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="15" customHeight="1">
+    <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>618</v>
       </c>
@@ -7189,7 +7195,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="15" customHeight="1">
+    <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>620</v>
       </c>
@@ -7203,7 +7209,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="15" customHeight="1">
+    <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>621</v>
       </c>
@@ -7217,7 +7223,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="15" customHeight="1">
+    <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>623</v>
       </c>
@@ -7231,7 +7237,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="15" customHeight="1">
+    <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>625</v>
       </c>
@@ -7245,7 +7251,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="15" customHeight="1">
+    <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>627</v>
       </c>
@@ -7259,7 +7265,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="15" customHeight="1">
+    <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>630</v>
       </c>
@@ -7273,7 +7279,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="15" customHeight="1">
+    <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>632</v>
       </c>
@@ -7287,7 +7293,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="15" customHeight="1">
+    <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>634</v>
       </c>
@@ -7301,7 +7307,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="15" customHeight="1">
+    <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>637</v>
       </c>
@@ -7315,7 +7321,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="15" customHeight="1">
+    <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>639</v>
       </c>
@@ -7329,7 +7335,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="15" customHeight="1">
+    <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>641</v>
       </c>
@@ -7343,7 +7349,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="15" customHeight="1">
+    <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>642</v>
       </c>
@@ -7357,7 +7363,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="15" customHeight="1">
+    <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>643</v>
       </c>
@@ -7371,7 +7377,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="15" customHeight="1">
+    <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>644</v>
       </c>
@@ -7385,7 +7391,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="15" customHeight="1">
+    <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>645</v>
       </c>
@@ -7399,7 +7405,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="15" customHeight="1">
+    <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>646</v>
       </c>
@@ -7413,7 +7419,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="15" customHeight="1">
+    <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>647</v>
       </c>
@@ -7427,7 +7433,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="15" customHeight="1">
+    <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>649</v>
       </c>
@@ -7441,7 +7447,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="15" customHeight="1">
+    <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>651</v>
       </c>
@@ -7455,7 +7461,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="15" customHeight="1">
+    <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
         <v>653</v>
       </c>
@@ -7469,7 +7475,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="15" customHeight="1">
+    <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
         <v>655</v>
       </c>
@@ -7483,7 +7489,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="15" customHeight="1">
+    <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
         <v>657</v>
       </c>
@@ -7497,7 +7503,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="15" customHeight="1">
+    <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
         <v>660</v>
       </c>
@@ -7511,7 +7517,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="15" customHeight="1">
+    <row r="318" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
         <v>662</v>
       </c>
@@ -7525,7 +7531,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="319" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="319" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="5" t="s">
         <v>665</v>
       </c>
@@ -7539,7 +7545,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="320" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="320" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="5" t="s">
         <v>667</v>
       </c>
@@ -7553,7 +7559,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="321" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="321" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="5" t="s">
         <v>669</v>
       </c>
@@ -7567,7 +7573,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="322" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="322" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="5" t="s">
         <v>671</v>
       </c>
@@ -7581,7 +7587,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="323" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="323" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
         <v>673</v>
       </c>
@@ -7595,7 +7601,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="324" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="324" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
         <v>675</v>
       </c>
@@ -7609,7 +7615,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="325" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="325" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
         <v>677</v>
       </c>
@@ -7623,7 +7629,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="326" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="326" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
         <v>679</v>
       </c>
@@ -7637,7 +7643,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="15" customHeight="1">
+    <row r="327" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>681</v>
       </c>
@@ -7651,7 +7657,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="15" customHeight="1">
+    <row r="328" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>683</v>
       </c>
@@ -7665,7 +7671,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="15" customHeight="1">
+    <row r="329" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>685</v>
       </c>
@@ -7679,7 +7685,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="15" customHeight="1">
+    <row r="330" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>687</v>
       </c>
@@ -7693,7 +7699,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="15" customHeight="1">
+    <row r="331" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>689</v>
       </c>
@@ -7704,7 +7710,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="15" customHeight="1">
+    <row r="332" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>691</v>
       </c>
@@ -7718,7 +7724,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="15" customHeight="1">
+    <row r="333" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>694</v>
       </c>
@@ -7742,23 +7748,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D341"/>
+  <dimension ref="A1:D343"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A300" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C339" sqref="C339:C341"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>697</v>
       </c>
@@ -7772,7 +7778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -7786,7 +7792,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -7800,7 +7806,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -7814,7 +7820,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -7828,7 +7834,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -7842,7 +7848,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -7856,7 +7862,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -7870,7 +7876,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -7884,7 +7890,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -7898,7 +7904,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -7912,7 +7918,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -7926,7 +7932,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -7940,7 +7946,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -7954,7 +7960,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -7968,7 +7974,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -7982,7 +7988,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -7996,7 +8002,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -8010,7 +8016,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -8024,7 +8030,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -8038,7 +8044,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -8052,7 +8058,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
@@ -8066,7 +8072,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -8080,7 +8086,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -8094,7 +8100,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
@@ -8108,7 +8114,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
@@ -8122,7 +8128,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
@@ -8136,7 +8142,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
@@ -8150,7 +8156,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>17</v>
       </c>
@@ -8164,7 +8170,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>17</v>
       </c>
@@ -8178,7 +8184,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>17</v>
       </c>
@@ -8192,7 +8198,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
@@ -8206,7 +8212,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
@@ -8220,7 +8226,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
@@ -8234,7 +8240,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
@@ -8248,7 +8254,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>19</v>
       </c>
@@ -8262,7 +8268,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
@@ -8276,7 +8282,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -8290,7 +8296,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>19</v>
       </c>
@@ -8304,7 +8310,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>19</v>
       </c>
@@ -8318,7 +8324,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>19</v>
       </c>
@@ -8332,7 +8338,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>19</v>
       </c>
@@ -8346,7 +8352,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>19</v>
       </c>
@@ -8360,7 +8366,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>19</v>
       </c>
@@ -8371,54 +8377,54 @@
         <v>0</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B45" s="2">
-        <v>0</v>
+        <v>616</v>
       </c>
       <c r="C45" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" s="2">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C46" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C47" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" s="2">
         <v>1</v>
@@ -8427,12 +8433,12 @@
         <v>0</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B49" s="2">
         <v>2</v>
@@ -8441,57 +8447,57 @@
         <v>0</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B50" s="2">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2</v>
+      </c>
+      <c r="C51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="2">
         <v>3</v>
       </c>
-      <c r="C50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1">
-      <c r="A51" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="2">
-        <v>1</v>
-      </c>
-      <c r="C51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1">
-      <c r="A52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" s="2">
-        <v>2</v>
-      </c>
       <c r="C52" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B53" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C53" s="2" t="b">
         <v>0</v>
@@ -8500,26 +8506,26 @@
         <v>747</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B54" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B55" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55" s="2" t="b">
         <v>0</v>
@@ -8528,65 +8534,65 @@
         <v>746</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="2">
+        <v>2</v>
+      </c>
+      <c r="C57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="2">
         <v>3</v>
       </c>
-      <c r="C56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1">
-      <c r="A57" s="2" t="s">
+      <c r="C58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="2">
-        <v>0</v>
-      </c>
-      <c r="C57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1">
-      <c r="A58" s="2" t="s">
+      <c r="B59" s="2">
+        <v>0</v>
+      </c>
+      <c r="C59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B58" s="2">
-        <v>1</v>
-      </c>
-      <c r="C58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1">
-      <c r="A59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B59" s="2">
-        <v>0</v>
-      </c>
-      <c r="C59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1">
-      <c r="A60" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="B60" s="2">
         <v>1</v>
@@ -8595,12 +8601,12 @@
         <v>0</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B61" s="2">
         <v>0</v>
@@ -8609,12 +8615,12 @@
         <v>0</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B62" s="2">
         <v>1</v>
@@ -8623,12 +8629,12 @@
         <v>0</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B63" s="2">
         <v>0</v>
@@ -8637,12 +8643,12 @@
         <v>0</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B64" s="2">
         <v>1</v>
@@ -8651,180 +8657,180 @@
         <v>0</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B65" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C65" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B66" s="2">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" s="2">
+        <v>2</v>
+      </c>
+      <c r="C67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" s="2">
         <v>3</v>
       </c>
-      <c r="C66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1">
-      <c r="A67" s="2" t="s">
+      <c r="C68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B67" s="2">
-        <v>0</v>
-      </c>
-      <c r="C67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="B69" s="2">
+        <v>0</v>
+      </c>
+      <c r="C69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1">
-      <c r="A68" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B68" s="2">
-        <v>1</v>
-      </c>
-      <c r="C68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1">
-      <c r="A69" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B69" s="2">
-        <v>1</v>
-      </c>
-      <c r="C69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1">
-      <c r="A70" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B70" s="2">
-        <v>2</v>
-      </c>
-      <c r="C70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1">
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B71" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C71" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B72" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C72" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B73" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C73" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B74" s="2">
+        <v>4</v>
+      </c>
+      <c r="C74" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B75" s="2">
+        <v>5</v>
+      </c>
+      <c r="C75" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0</v>
+      </c>
+      <c r="C76" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1">
-      <c r="A74" s="2" t="s">
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B74" s="2">
-        <v>0</v>
-      </c>
-      <c r="C74" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1">
-      <c r="A75" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B75" s="2">
-        <v>1</v>
-      </c>
-      <c r="C75" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1">
-      <c r="A76" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B76" s="2">
-        <v>0</v>
-      </c>
-      <c r="C76" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1">
-      <c r="A77" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="B77" s="2">
         <v>1</v>
@@ -8833,12 +8839,12 @@
         <v>0</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B78" s="2">
         <v>0</v>
@@ -8847,12 +8853,12 @@
         <v>0</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B79" s="2">
         <v>1</v>
@@ -8861,12 +8867,12 @@
         <v>0</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B80" s="2">
         <v>0</v>
@@ -8875,12 +8881,12 @@
         <v>0</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B81" s="2">
         <v>1</v>
@@ -8889,12 +8895,12 @@
         <v>0</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B82" s="2">
         <v>0</v>
@@ -8903,12 +8909,12 @@
         <v>0</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B83" s="2">
         <v>1</v>
@@ -8917,12 +8923,12 @@
         <v>0</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B84" s="2">
         <v>0</v>
@@ -8931,12 +8937,12 @@
         <v>0</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B85" s="2">
         <v>1</v>
@@ -8945,12 +8951,12 @@
         <v>0</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B86" s="2">
         <v>0</v>
@@ -8959,12 +8965,12 @@
         <v>0</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B87" s="2">
         <v>1</v>
@@ -8973,12 +8979,12 @@
         <v>0</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B88" s="2">
         <v>0</v>
@@ -8987,12 +8993,12 @@
         <v>0</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B89" s="2">
         <v>1</v>
@@ -9001,12 +9007,12 @@
         <v>0</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B90" s="2">
         <v>0</v>
@@ -9015,12 +9021,12 @@
         <v>0</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B91" s="2">
         <v>1</v>
@@ -9029,12 +9035,12 @@
         <v>0</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B92" s="2">
         <v>0</v>
@@ -9043,12 +9049,12 @@
         <v>0</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B93" s="2">
         <v>1</v>
@@ -9057,12 +9063,12 @@
         <v>0</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B94" s="2">
         <v>0</v>
@@ -9071,12 +9077,12 @@
         <v>0</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B95" s="2">
         <v>1</v>
@@ -9085,68 +9091,68 @@
         <v>0</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B96" s="2">
+        <v>0</v>
+      </c>
+      <c r="C96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B97" s="2">
+        <v>1</v>
+      </c>
+      <c r="C97" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B98" s="2">
         <v>2</v>
       </c>
-      <c r="C96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1">
-      <c r="A97" s="2" t="s">
+      <c r="C98" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B97" s="2">
-        <v>0</v>
-      </c>
-      <c r="C97" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1">
-      <c r="A98" s="2" t="s">
+      <c r="B99" s="2">
+        <v>0</v>
+      </c>
+      <c r="C99" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B98" s="2">
-        <v>1</v>
-      </c>
-      <c r="C98" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1">
-      <c r="A99" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B99" s="2">
-        <v>0</v>
-      </c>
-      <c r="C99" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1">
-      <c r="A100" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="B100" s="2">
         <v>1</v>
@@ -9155,68 +9161,68 @@
         <v>0</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B101" s="2">
+        <v>0</v>
+      </c>
+      <c r="C101" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B102" s="2">
+        <v>1</v>
+      </c>
+      <c r="C102" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B103" s="2">
         <v>2</v>
       </c>
-      <c r="C101" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1">
-      <c r="A102" s="2" t="s">
+      <c r="C103" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B102" s="2">
-        <v>0</v>
-      </c>
-      <c r="C102" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1">
-      <c r="A103" s="2" t="s">
+      <c r="B104" s="2">
+        <v>0</v>
+      </c>
+      <c r="C104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B103" s="2">
-        <v>1</v>
-      </c>
-      <c r="C103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1">
-      <c r="A104" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B104" s="2">
-        <v>0</v>
-      </c>
-      <c r="C104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1">
-      <c r="A105" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="B105" s="2">
         <v>1</v>
@@ -9225,96 +9231,96 @@
         <v>0</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B106" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C106" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B107" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C107" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B108" s="2">
+        <v>2</v>
+      </c>
+      <c r="C108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B109" s="2">
+        <v>3</v>
+      </c>
+      <c r="C109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B110" s="2">
         <v>4</v>
       </c>
-      <c r="C108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1">
-      <c r="A109" s="2" t="s">
+      <c r="C110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B109" s="2">
-        <v>0</v>
-      </c>
-      <c r="C109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1">
-      <c r="A110" s="2" t="s">
+      <c r="B111" s="2">
+        <v>0</v>
+      </c>
+      <c r="C111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B110" s="2">
-        <v>1</v>
-      </c>
-      <c r="C110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1">
-      <c r="A111" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B111" s="2">
-        <v>0</v>
-      </c>
-      <c r="C111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1">
-      <c r="A112" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="B112" s="2">
         <v>1</v>
@@ -9323,82 +9329,82 @@
         <v>0</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B113" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C113" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B114" s="2">
+        <v>1</v>
+      </c>
+      <c r="C114" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B115" s="2">
+        <v>2</v>
+      </c>
+      <c r="C115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B116" s="2">
         <v>3</v>
       </c>
-      <c r="C114" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1">
-      <c r="A115" s="2" t="s">
+      <c r="C116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B115" s="2">
-        <v>0</v>
-      </c>
-      <c r="C115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1">
-      <c r="A116" s="2" t="s">
+      <c r="B117" s="2">
+        <v>0</v>
+      </c>
+      <c r="C117" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B116" s="2">
-        <v>1</v>
-      </c>
-      <c r="C116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1">
-      <c r="A117" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B117" s="2">
-        <v>0</v>
-      </c>
-      <c r="C117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1">
-      <c r="A118" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="B118" s="2">
         <v>1</v>
@@ -9407,12 +9413,12 @@
         <v>0</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B119" s="2">
         <v>0</v>
@@ -9421,12 +9427,12 @@
         <v>0</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B120" s="2">
         <v>1</v>
@@ -9435,12 +9441,12 @@
         <v>0</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B121" s="2">
         <v>0</v>
@@ -9449,12 +9455,12 @@
         <v>0</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B122" s="2">
         <v>1</v>
@@ -9463,124 +9469,124 @@
         <v>0</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B123" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C123" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B124" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C124" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B125" s="2">
+        <v>2</v>
+      </c>
+      <c r="C125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B126" s="2">
+        <v>3</v>
+      </c>
+      <c r="C126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B127" s="2">
         <v>4</v>
       </c>
-      <c r="C125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D125" s="2" t="s">
+      <c r="C127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B128" s="2">
+        <v>1</v>
+      </c>
+      <c r="C128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1">
-      <c r="A126" s="2" t="s">
+    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B126" s="2">
-        <v>1</v>
-      </c>
-      <c r="C126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D126" s="2" t="s">
+      <c r="B129" s="2">
+        <v>2</v>
+      </c>
+      <c r="C129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1">
-      <c r="A127" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B127" s="2">
-        <v>2</v>
-      </c>
-      <c r="C127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1">
-      <c r="A128" s="2" t="s">
+    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B128" s="2">
-        <v>0</v>
-      </c>
-      <c r="C128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1">
-      <c r="A129" s="2" t="s">
+      <c r="B130" s="2">
+        <v>0</v>
+      </c>
+      <c r="C130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B129" s="2">
-        <v>1</v>
-      </c>
-      <c r="C129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1">
-      <c r="A130" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B130" s="2">
-        <v>0</v>
-      </c>
-      <c r="C130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1">
-      <c r="A131" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="B131" s="2">
         <v>1</v>
@@ -9589,208 +9595,208 @@
         <v>0</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B132" s="2">
+        <v>0</v>
+      </c>
+      <c r="C132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B133" s="2">
         <v>1</v>
       </c>
-      <c r="C132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1">
-      <c r="A133" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B133" s="2">
-        <v>2</v>
-      </c>
       <c r="C133" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B134" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C134" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B135" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C135" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B136" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C136" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B137" s="2">
+        <v>4</v>
+      </c>
+      <c r="C137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B138" s="2">
+        <v>5</v>
+      </c>
+      <c r="C138" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B139" s="2">
         <v>6</v>
       </c>
-      <c r="C137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1">
-      <c r="A138" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B138" s="2">
-        <v>1</v>
-      </c>
-      <c r="C138" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1">
-      <c r="A139" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B139" s="2">
-        <v>2</v>
-      </c>
       <c r="C139" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B140" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C140" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B141" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C141" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B142" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C142" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B143" s="2">
+        <v>4</v>
+      </c>
+      <c r="C143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B144" s="2">
+        <v>5</v>
+      </c>
+      <c r="C144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B143" s="2">
-        <v>0</v>
-      </c>
-      <c r="C143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1">
-      <c r="A144" s="2" t="s">
+      <c r="B145" s="2">
+        <v>0</v>
+      </c>
+      <c r="C145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B144" s="2">
-        <v>1</v>
-      </c>
-      <c r="C144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1">
-      <c r="A145" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B145" s="2">
-        <v>0</v>
-      </c>
-      <c r="C145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1">
-      <c r="A146" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="B146" s="2">
         <v>1</v>
@@ -9799,26 +9805,26 @@
         <v>0</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B147" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C147" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B148" s="2">
         <v>1</v>
@@ -9827,12 +9833,12 @@
         <v>0</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B149" s="2">
         <v>2</v>
@@ -9841,113 +9847,113 @@
         <v>0</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B150" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C150" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="15" customHeight="1">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B151" s="2">
+        <v>2</v>
+      </c>
+      <c r="C151" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B152" s="2">
+        <v>3</v>
+      </c>
+      <c r="C152" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B153" s="2">
         <v>4</v>
       </c>
-      <c r="C151" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="15" customHeight="1">
-      <c r="A152" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B152" s="2">
-        <v>1</v>
-      </c>
-      <c r="C152" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1">
-      <c r="A153" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B153" s="2">
-        <v>2</v>
-      </c>
       <c r="C153" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B154" s="2">
+        <v>1</v>
+      </c>
+      <c r="C154" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B155" s="2">
+        <v>2</v>
+      </c>
+      <c r="C155" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B156" s="2">
         <v>3</v>
       </c>
-      <c r="C154" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1">
-      <c r="A155" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B155" s="2">
-        <v>1</v>
-      </c>
-      <c r="C155" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1">
-      <c r="A156" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B156" s="2">
-        <v>2</v>
-      </c>
       <c r="C156" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B157" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C157" s="2" t="b">
         <v>0</v>
@@ -9956,26 +9962,26 @@
         <v>796</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1">
+    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B158" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C158" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B159" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C159" s="2" t="b">
         <v>0</v>
@@ -9984,205 +9990,205 @@
         <v>795</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1">
+    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B160" s="2">
+        <v>1</v>
+      </c>
+      <c r="C160" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B161" s="2">
+        <v>2</v>
+      </c>
+      <c r="C161" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B162" s="2">
         <v>3</v>
       </c>
-      <c r="C160" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1">
-      <c r="A161" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B161" s="2">
-        <v>1</v>
-      </c>
-      <c r="C161" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1">
-      <c r="A162" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B162" s="2">
-        <v>2</v>
-      </c>
       <c r="C162" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B163" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C163" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B164" s="2">
+        <v>2</v>
+      </c>
+      <c r="C164" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B165" s="2">
+        <v>3</v>
+      </c>
+      <c r="C165" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B166" s="2">
         <v>4</v>
       </c>
-      <c r="C164" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1">
-      <c r="A165" s="2" t="s">
+      <c r="C166" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B165" s="2">
-        <v>0</v>
-      </c>
-      <c r="C165" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D165" s="2" t="s">
+      <c r="B167" s="2">
+        <v>0</v>
+      </c>
+      <c r="C167" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B168" s="2">
+        <v>1</v>
+      </c>
+      <c r="C168" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1">
-      <c r="A166" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B166" s="2">
-        <v>1</v>
-      </c>
-      <c r="C166" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1">
-      <c r="A167" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B167" s="2">
-        <v>1</v>
-      </c>
-      <c r="C167" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1">
-      <c r="A168" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B168" s="2">
-        <v>2</v>
-      </c>
-      <c r="C168" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1">
+    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B169" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C169" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B170" s="2">
+        <v>2</v>
+      </c>
+      <c r="C170" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B171" s="2">
+        <v>3</v>
+      </c>
+      <c r="C171" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B172" s="2">
         <v>4</v>
       </c>
-      <c r="C170" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1">
-      <c r="A171" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B171" s="2">
-        <v>0</v>
-      </c>
-      <c r="C171" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="15" customHeight="1">
-      <c r="A172" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B172" s="2">
-        <v>1</v>
-      </c>
       <c r="C172" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="15" customHeight="1">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B173" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C173" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="15" customHeight="1">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B174" s="2">
         <v>1</v>
@@ -10191,12 +10197,12 @@
         <v>0</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="15" customHeight="1">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B175" s="2">
         <v>2</v>
@@ -10205,82 +10211,82 @@
         <v>0</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="15" customHeight="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B176" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C176" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="15" customHeight="1">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B177" s="2">
+        <v>2</v>
+      </c>
+      <c r="C177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B178" s="2">
+        <v>3</v>
+      </c>
+      <c r="C178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B179" s="2">
         <v>4</v>
       </c>
-      <c r="C177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="15" customHeight="1">
-      <c r="A178" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B178" s="2">
-        <v>0</v>
-      </c>
-      <c r="C178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="15" customHeight="1">
-      <c r="A179" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B179" s="2">
-        <v>1</v>
-      </c>
       <c r="C179" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="15" customHeight="1">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B180" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C180" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="15" customHeight="1">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B181" s="2">
         <v>1</v>
@@ -10289,12 +10295,12 @@
         <v>0</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="15" customHeight="1">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B182" s="2">
         <v>2</v>
@@ -10303,138 +10309,138 @@
         <v>0</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="15" customHeight="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B183" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C183" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="15" customHeight="1">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B184" s="2">
+        <v>2</v>
+      </c>
+      <c r="C184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B185" s="2">
+        <v>3</v>
+      </c>
+      <c r="C185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B186" s="2">
         <v>4</v>
       </c>
-      <c r="C184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="15" customHeight="1">
-      <c r="A185" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B185" s="2">
-        <v>1</v>
-      </c>
-      <c r="C185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="15" customHeight="1">
-      <c r="A186" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B186" s="2">
-        <v>2</v>
-      </c>
       <c r="C186" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B187" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C187" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="15" customHeight="1">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B188" s="2">
+        <v>2</v>
+      </c>
+      <c r="C188" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B189" s="2">
+        <v>3</v>
+      </c>
+      <c r="C189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B190" s="2">
         <v>4</v>
       </c>
-      <c r="C188" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D188" s="2" t="s">
+      <c r="C190" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B191" s="2">
+        <v>0</v>
+      </c>
+      <c r="C191" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="15" customHeight="1">
-      <c r="A189" s="2" t="s">
+    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B189" s="2">
-        <v>0</v>
-      </c>
-      <c r="C189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="15" customHeight="1">
-      <c r="A190" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B190" s="2">
-        <v>1</v>
-      </c>
-      <c r="C190" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="15" customHeight="1">
-      <c r="A191" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B191" s="2">
-        <v>0</v>
-      </c>
-      <c r="C191" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="15" customHeight="1">
-      <c r="A192" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="B192" s="2">
         <v>1</v>
@@ -10443,12 +10449,12 @@
         <v>0</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="15" customHeight="1">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B193" s="2">
         <v>0</v>
@@ -10457,12 +10463,12 @@
         <v>0</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="15" customHeight="1">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B194" s="2">
         <v>1</v>
@@ -10471,12 +10477,12 @@
         <v>0</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="15" customHeight="1">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B195" s="2">
         <v>0</v>
@@ -10485,12 +10491,12 @@
         <v>0</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="15" customHeight="1">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B196" s="2">
         <v>1</v>
@@ -10499,26 +10505,26 @@
         <v>0</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="15" customHeight="1">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B197" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C197" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="15" customHeight="1">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B198" s="2">
         <v>1</v>
@@ -10527,12 +10533,12 @@
         <v>0</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="15" customHeight="1">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B199" s="2">
         <v>2</v>
@@ -10541,96 +10547,96 @@
         <v>0</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="15" customHeight="1">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B200" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C200" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="15" customHeight="1">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B201" s="2">
+        <v>2</v>
+      </c>
+      <c r="C201" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B202" s="2">
+        <v>3</v>
+      </c>
+      <c r="C202" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B203" s="2">
         <v>4</v>
       </c>
-      <c r="C201" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="15" customHeight="1">
-      <c r="A202" s="2" t="s">
+      <c r="C203" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B202" s="2">
-        <v>0</v>
-      </c>
-      <c r="C202" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D202" s="2" t="s">
+      <c r="B204" s="2">
+        <v>0</v>
+      </c>
+      <c r="C204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B205" s="2">
+        <v>1</v>
+      </c>
+      <c r="C205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="15" customHeight="1">
-      <c r="A203" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B203" s="2">
-        <v>1</v>
-      </c>
-      <c r="C203" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="15" customHeight="1">
-      <c r="A204" s="2" t="s">
+    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B204" s="2">
-        <v>1</v>
-      </c>
-      <c r="C204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="15" customHeight="1">
-      <c r="A205" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B205" s="2">
-        <v>2</v>
-      </c>
-      <c r="C205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="15" customHeight="1">
-      <c r="A206" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="B206" s="2">
         <v>1</v>
@@ -10639,12 +10645,12 @@
         <v>0</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="15" customHeight="1">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B207" s="2">
         <v>2</v>
@@ -10653,110 +10659,110 @@
         <v>0</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="15" customHeight="1">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B208" s="2">
+        <v>1</v>
+      </c>
+      <c r="C208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B209" s="2">
+        <v>2</v>
+      </c>
+      <c r="C209" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B210" s="2">
         <v>3</v>
       </c>
-      <c r="C208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="15" customHeight="1">
-      <c r="A209" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B209" s="2">
-        <v>1</v>
-      </c>
-      <c r="C209" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="15" customHeight="1">
-      <c r="A210" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B210" s="2">
-        <v>2</v>
-      </c>
       <c r="C210" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="15" customHeight="1">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B211" s="2">
+        <v>1</v>
+      </c>
+      <c r="C211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B212" s="2">
+        <v>2</v>
+      </c>
+      <c r="C212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B213" s="2">
         <v>3</v>
       </c>
-      <c r="C211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="15" customHeight="1">
-      <c r="A212" s="2" t="s">
+      <c r="C213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B212" s="2">
-        <v>0</v>
-      </c>
-      <c r="C212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="15" customHeight="1">
-      <c r="A213" s="2" t="s">
+      <c r="B214" s="2">
+        <v>0</v>
+      </c>
+      <c r="C214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="B213" s="2">
-        <v>1</v>
-      </c>
-      <c r="C213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="15" customHeight="1">
-      <c r="A214" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B214" s="2">
-        <v>0</v>
-      </c>
-      <c r="C214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="15" customHeight="1">
-      <c r="A215" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="B215" s="2">
         <v>1</v>
@@ -10765,12 +10771,12 @@
         <v>0</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="15" customHeight="1">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B216" s="2">
         <v>0</v>
@@ -10779,12 +10785,12 @@
         <v>0</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="15" customHeight="1">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B217" s="2">
         <v>1</v>
@@ -10793,124 +10799,124 @@
         <v>0</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="15" customHeight="1">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B218" s="2">
+        <v>0</v>
+      </c>
+      <c r="C218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B219" s="2">
         <v>1</v>
       </c>
-      <c r="C218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="15" customHeight="1">
-      <c r="A219" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B219" s="2">
-        <v>2</v>
-      </c>
       <c r="C219" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="15" customHeight="1">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B220" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C220" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="15" customHeight="1">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B221" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C221" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="15" customHeight="1">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B222" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C222" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="15" customHeight="1">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B223" s="2">
+        <v>4</v>
+      </c>
+      <c r="C223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B224" s="2">
+        <v>5</v>
+      </c>
+      <c r="C224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B223" s="2">
-        <v>0</v>
-      </c>
-      <c r="C223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="15" customHeight="1">
-      <c r="A224" s="2" t="s">
+      <c r="B225" s="2">
+        <v>0</v>
+      </c>
+      <c r="C225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="B224" s="2">
-        <v>1</v>
-      </c>
-      <c r="C224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="15" customHeight="1">
-      <c r="A225" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B225" s="2">
-        <v>0</v>
-      </c>
-      <c r="C225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="15" customHeight="1">
-      <c r="A226" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="B226" s="2">
         <v>1</v>
@@ -10919,684 +10925,684 @@
         <v>0</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="15" customHeight="1">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="B227" s="2">
+        <v>0</v>
+      </c>
+      <c r="C227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B228" s="2">
         <v>1</v>
       </c>
-      <c r="C227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="15" customHeight="1">
-      <c r="A228" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B228" s="2">
-        <v>2</v>
-      </c>
       <c r="C228" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" ht="15" customHeight="1">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>243</v>
       </c>
       <c r="B229" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C229" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="15" customHeight="1">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>243</v>
       </c>
       <c r="B230" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C230" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="15" customHeight="1">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>243</v>
       </c>
       <c r="B231" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C231" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="15" customHeight="1">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B232" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C232" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="15" customHeight="1">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B233" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C233" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" ht="15" customHeight="1">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B234" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C234" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" ht="15" customHeight="1">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B235" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C235" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="15" customHeight="1">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B236" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C236" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" ht="15" customHeight="1">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B237" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C237" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" ht="15" customHeight="1">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B238" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C238" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" ht="15" customHeight="1">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B239" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C239" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" ht="15" customHeight="1">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B240" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C240" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="15" customHeight="1">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B241" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C241" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="15" customHeight="1">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B242" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C242" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" ht="15" customHeight="1">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B243" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C243" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="15" customHeight="1">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B244" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C244" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" ht="15" customHeight="1">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B245" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C245" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" ht="15" customHeight="1">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B246" s="2">
+        <v>7</v>
+      </c>
+      <c r="C246" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B247" s="2">
+        <v>8</v>
+      </c>
+      <c r="C247" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B248" s="2">
         <v>9</v>
       </c>
-      <c r="C246" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" ht="15" customHeight="1">
-      <c r="A247" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B247" s="2">
-        <v>0</v>
-      </c>
-      <c r="C247" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" ht="15" customHeight="1">
-      <c r="A248" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B248" s="2">
-        <v>1</v>
-      </c>
       <c r="C248" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" ht="15" customHeight="1">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B249" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C249" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" ht="15" customHeight="1">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B250" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C250" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" ht="15" customHeight="1">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B251" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C251" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" ht="15" customHeight="1">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B252" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C252" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" ht="15" customHeight="1">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B253" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C253" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" ht="15" customHeight="1">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B254" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C254" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" ht="15" customHeight="1">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B255" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C255" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" ht="15" customHeight="1">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B256" s="2">
+        <v>7</v>
+      </c>
+      <c r="C256" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B257" s="2">
+        <v>8</v>
+      </c>
+      <c r="C257" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B258" s="2">
         <v>9</v>
       </c>
-      <c r="C256" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" ht="15" customHeight="1">
-      <c r="A257" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B257" s="2">
-        <v>1001</v>
-      </c>
-      <c r="C257" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" ht="15" customHeight="1">
-      <c r="A258" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B258" s="2">
-        <v>1102</v>
-      </c>
       <c r="C258" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" ht="15" customHeight="1">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B259" s="2">
-        <v>1103</v>
+        <v>1001</v>
       </c>
       <c r="C259" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" ht="15" customHeight="1">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B260" s="2">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="C260" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" ht="15" customHeight="1">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B261" s="2">
-        <v>1201</v>
+        <v>1103</v>
       </c>
       <c r="C261" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" ht="15" customHeight="1">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B262" s="2">
-        <v>1202</v>
+        <v>1104</v>
       </c>
       <c r="C262" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" ht="15" customHeight="1">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B263" s="2">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="C263" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" ht="15" customHeight="1">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B264" s="2">
-        <v>1301</v>
+        <v>1202</v>
       </c>
       <c r="C264" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" ht="15" customHeight="1">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B265" s="2">
-        <v>1401</v>
+        <v>1203</v>
       </c>
       <c r="C265" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" ht="15" customHeight="1">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B266" s="2">
-        <v>1501</v>
+        <v>1301</v>
       </c>
       <c r="C266" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" ht="15" customHeight="1">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B267" s="2">
-        <v>1601</v>
+        <v>1401</v>
       </c>
       <c r="C267" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" ht="15" customHeight="1">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B268" s="2">
-        <v>1701</v>
+        <v>1501</v>
       </c>
       <c r="C268" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" ht="15" customHeight="1">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B269" s="2">
-        <v>1801</v>
+        <v>1601</v>
       </c>
       <c r="C269" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" ht="15" customHeight="1">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B270" s="2">
-        <v>1802</v>
+        <v>1701</v>
       </c>
       <c r="C270" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" ht="15" customHeight="1">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B271" s="2">
-        <v>1901</v>
+        <v>1801</v>
       </c>
       <c r="C271" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" ht="15" customHeight="1">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B272" s="2">
+        <v>1802</v>
+      </c>
+      <c r="C272" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B273" s="2">
+        <v>1901</v>
+      </c>
+      <c r="C273" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B274" s="2">
         <v>2001</v>
       </c>
-      <c r="C272" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" ht="15" customHeight="1">
-      <c r="A273" s="2" t="s">
+      <c r="C274" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="B273" s="2">
-        <v>1</v>
-      </c>
-      <c r="C273" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" ht="15" customHeight="1">
-      <c r="A274" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B274" s="2">
-        <v>0</v>
-      </c>
-      <c r="C274" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" ht="15" customHeight="1">
-      <c r="A275" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="B275" s="2">
         <v>1</v>
@@ -11605,26 +11611,26 @@
         <v>0</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" ht="15" customHeight="1">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B276" s="2">
+        <v>0</v>
+      </c>
+      <c r="C276" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="B276" s="2">
-        <v>0</v>
-      </c>
-      <c r="C276" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" ht="15" customHeight="1">
-      <c r="A277" s="2" t="s">
-        <v>390</v>
       </c>
       <c r="B277" s="2">
         <v>1</v>
@@ -11633,211 +11639,211 @@
         <v>0</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" ht="15" customHeight="1">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="B278" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C278" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" ht="15" customHeight="1">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>390</v>
       </c>
       <c r="B279" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C279" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" ht="15" customHeight="1">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>390</v>
       </c>
       <c r="B280" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C280" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" ht="15" customHeight="1">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>390</v>
       </c>
       <c r="B281" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C281" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" ht="15" customHeight="1">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>390</v>
       </c>
       <c r="B282" s="2">
+        <v>4</v>
+      </c>
+      <c r="C282" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B283" s="2">
+        <v>5</v>
+      </c>
+      <c r="C283" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B284" s="2">
         <v>6</v>
       </c>
-      <c r="C282" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" ht="15" customHeight="1">
-      <c r="A283" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B283" s="2">
-        <v>1</v>
-      </c>
-      <c r="C283" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" ht="15" customHeight="1">
-      <c r="A284" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B284" s="2">
-        <v>2</v>
-      </c>
       <c r="C284" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" ht="15" customHeight="1">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>388</v>
       </c>
       <c r="B285" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C285" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" ht="15" customHeight="1">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>388</v>
       </c>
       <c r="B286" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C286" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" ht="15" customHeight="1">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>388</v>
       </c>
       <c r="B287" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C287" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" ht="15" customHeight="1">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>388</v>
       </c>
       <c r="B288" s="2">
+        <v>4</v>
+      </c>
+      <c r="C288" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B289" s="2">
+        <v>5</v>
+      </c>
+      <c r="C289" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B290" s="2">
         <v>6</v>
       </c>
-      <c r="C288" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D288" s="2" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" ht="15" customHeight="1">
-      <c r="A289" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B289" s="2">
-        <v>1</v>
-      </c>
-      <c r="C289" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" ht="15" customHeight="1">
-      <c r="A290" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B290" s="2">
-        <v>2</v>
-      </c>
       <c r="C290" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" ht="15" customHeight="1">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>394</v>
       </c>
       <c r="B291" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C291" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" ht="15" customHeight="1">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B292" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C292" s="2" t="b">
         <v>0</v>
@@ -11846,110 +11852,110 @@
         <v>864</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="15" customHeight="1">
+    <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B293" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C293" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" ht="15" customHeight="1">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
         <v>396</v>
       </c>
       <c r="B294" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C294" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" ht="15" customHeight="1">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>396</v>
       </c>
       <c r="B295" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C295" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" ht="15" customHeight="1">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>396</v>
       </c>
       <c r="B296" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C296" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" ht="15" customHeight="1">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>474</v>
+        <v>396</v>
       </c>
       <c r="B297" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C297" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" ht="15" customHeight="1">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>474</v>
+        <v>396</v>
       </c>
       <c r="B298" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C298" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" ht="15" customHeight="1">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>474</v>
       </c>
       <c r="B299" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C299" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" ht="15" customHeight="1">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>515</v>
+        <v>474</v>
       </c>
       <c r="B300" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C300" s="2" t="b">
         <v>0</v>
@@ -11958,12 +11964,12 @@
         <v>869</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="15" customHeight="1">
+    <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>515</v>
+        <v>474</v>
       </c>
       <c r="B301" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C301" s="2" t="b">
         <v>0</v>
@@ -11972,26 +11978,26 @@
         <v>870</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="15" customHeight="1">
+    <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
         <v>515</v>
       </c>
       <c r="B302" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C302" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" ht="15" customHeight="1">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>555</v>
+        <v>515</v>
       </c>
       <c r="B303" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C303" s="2" t="b">
         <v>0</v>
@@ -12000,12 +12006,12 @@
         <v>869</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="15" customHeight="1">
+    <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>555</v>
+        <v>515</v>
       </c>
       <c r="B304" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C304" s="2" t="b">
         <v>0</v>
@@ -12014,65 +12020,65 @@
         <v>870</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="15" customHeight="1">
+    <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>555</v>
       </c>
       <c r="B305" s="2">
+        <v>1</v>
+      </c>
+      <c r="C305" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A306" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B306" s="2">
+        <v>2</v>
+      </c>
+      <c r="C306" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A307" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B307" s="2">
         <v>3</v>
       </c>
-      <c r="C305" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" ht="15" customHeight="1">
-      <c r="A306" s="2" t="s">
+      <c r="C307" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A308" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="B306" s="2">
-        <v>0</v>
-      </c>
-      <c r="C306" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" ht="15" customHeight="1">
-      <c r="A307" s="2" t="s">
+      <c r="B308" s="2">
+        <v>0</v>
+      </c>
+      <c r="C308" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A309" s="2" t="s">
         <v>647</v>
-      </c>
-      <c r="B307" s="2">
-        <v>1</v>
-      </c>
-      <c r="C307" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D307" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" ht="15" customHeight="1">
-      <c r="A308" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="B308" s="2">
-        <v>0</v>
-      </c>
-      <c r="C308" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D308" s="2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" ht="15" customHeight="1">
-      <c r="A309" s="2" t="s">
-        <v>649</v>
       </c>
       <c r="B309" s="2">
         <v>1</v>
@@ -12081,12 +12087,12 @@
         <v>0</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" ht="15" customHeight="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B310" s="2">
         <v>0</v>
@@ -12095,12 +12101,12 @@
         <v>0</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" ht="15" customHeight="1">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B311" s="2">
         <v>1</v>
@@ -12109,54 +12115,54 @@
         <v>0</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" ht="15" customHeight="1">
-      <c r="A312" s="4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A312" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B312" s="2">
+        <v>0</v>
+      </c>
+      <c r="C312" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A313" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B313" s="2">
+        <v>1</v>
+      </c>
+      <c r="C313" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A314" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="B312" s="2">
-        <v>0</v>
-      </c>
-      <c r="C312" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D312" s="2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" ht="15" customHeight="1">
-      <c r="A313" s="4" t="s">
+      <c r="B314" s="2">
+        <v>0</v>
+      </c>
+      <c r="C314" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A315" s="4" t="s">
         <v>655</v>
-      </c>
-      <c r="B313" s="4">
-        <v>1</v>
-      </c>
-      <c r="C313" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D313" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" ht="15" customHeight="1">
-      <c r="A314" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="B314" s="4">
-        <v>0</v>
-      </c>
-      <c r="C314" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D314" s="2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" ht="15" customHeight="1">
-      <c r="A315" s="4" t="s">
-        <v>660</v>
       </c>
       <c r="B315" s="4">
         <v>1</v>
@@ -12165,12 +12171,12 @@
         <v>0</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" ht="15" customHeight="1">
-      <c r="A316" s="5" t="s">
-        <v>665</v>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A316" s="4" t="s">
+        <v>660</v>
       </c>
       <c r="B316" s="4">
         <v>0</v>
@@ -12179,12 +12185,12 @@
         <v>0</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" ht="15" customHeight="1">
-      <c r="A317" s="5" t="s">
-        <v>665</v>
+        <v>749</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A317" s="4" t="s">
+        <v>660</v>
       </c>
       <c r="B317" s="4">
         <v>1</v>
@@ -12193,12 +12199,12 @@
         <v>0</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" ht="15" customHeight="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="5" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B318" s="4">
         <v>0</v>
@@ -12207,12 +12213,12 @@
         <v>0</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" ht="15" customHeight="1">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="5" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B319" s="4">
         <v>1</v>
@@ -12221,12 +12227,12 @@
         <v>0</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" ht="15" customHeight="1">
-      <c r="A320" s="1" t="s">
-        <v>669</v>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A320" s="5" t="s">
+        <v>667</v>
       </c>
       <c r="B320" s="4">
         <v>0</v>
@@ -12235,12 +12241,12 @@
         <v>0</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" ht="15" customHeight="1">
-      <c r="A321" s="1" t="s">
-        <v>669</v>
+        <v>749</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A321" s="5" t="s">
+        <v>667</v>
       </c>
       <c r="B321" s="4">
         <v>1</v>
@@ -12249,12 +12255,12 @@
         <v>0</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" ht="15" customHeight="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B322" s="4">
         <v>0</v>
@@ -12263,12 +12269,12 @@
         <v>0</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" ht="15" customHeight="1">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B323" s="4">
         <v>1</v>
@@ -12277,12 +12283,12 @@
         <v>0</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" ht="15" customHeight="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B324" s="4">
         <v>0</v>
@@ -12291,12 +12297,12 @@
         <v>0</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" ht="15" customHeight="1">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B325" s="4">
         <v>1</v>
@@ -12305,12 +12311,12 @@
         <v>0</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" ht="15" customHeight="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B326" s="4">
         <v>0</v>
@@ -12319,12 +12325,12 @@
         <v>0</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" ht="15" customHeight="1">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B327" s="4">
         <v>1</v>
@@ -12333,12 +12339,12 @@
         <v>0</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" ht="15" customHeight="1">
-      <c r="A328" s="2" t="s">
-        <v>677</v>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A328" s="1" t="s">
+        <v>675</v>
       </c>
       <c r="B328" s="4">
         <v>0</v>
@@ -12347,12 +12353,12 @@
         <v>0</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" ht="15" customHeight="1">
-      <c r="A329" s="2" t="s">
-        <v>677</v>
+        <v>749</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A329" s="1" t="s">
+        <v>675</v>
       </c>
       <c r="B329" s="4">
         <v>1</v>
@@ -12361,12 +12367,12 @@
         <v>0</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" ht="15" customHeight="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B330" s="4">
         <v>0</v>
@@ -12375,12 +12381,12 @@
         <v>0</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" ht="15" customHeight="1">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B331" s="4">
         <v>1</v>
@@ -12389,12 +12395,12 @@
         <v>0</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" ht="15" customHeight="1">
-      <c r="A332" s="1" t="s">
-        <v>681</v>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A332" s="2" t="s">
+        <v>679</v>
       </c>
       <c r="B332" s="4">
         <v>0</v>
@@ -12403,12 +12409,12 @@
         <v>0</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" ht="15" customHeight="1">
-      <c r="A333" s="1" t="s">
-        <v>681</v>
+        <v>749</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A333" s="2" t="s">
+        <v>679</v>
       </c>
       <c r="B333" s="4">
         <v>1</v>
@@ -12417,12 +12423,12 @@
         <v>0</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" ht="15" customHeight="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B334" s="4">
         <v>0</v>
@@ -12431,12 +12437,12 @@
         <v>0</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" ht="15" customHeight="1">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B335" s="4">
         <v>1</v>
@@ -12445,12 +12451,12 @@
         <v>0</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" ht="15" customHeight="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B336" s="4">
         <v>0</v>
@@ -12459,12 +12465,12 @@
         <v>0</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" ht="15" customHeight="1">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B337" s="4">
         <v>1</v>
@@ -12473,12 +12479,12 @@
         <v>0</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" ht="15" customHeight="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B338" s="4">
         <v>0</v>
@@ -12487,12 +12493,12 @@
         <v>0</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" ht="15" customHeight="1">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B339" s="4">
         <v>1</v>
@@ -12501,35 +12507,63 @@
         <v>0</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" ht="15" customHeight="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B340" s="4">
+        <v>0</v>
+      </c>
+      <c r="C340" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A341" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B341" s="4">
+        <v>1</v>
+      </c>
+      <c r="C341" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A342" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="B340" s="1">
-        <v>0</v>
-      </c>
-      <c r="C340" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D340" s="1" t="s">
+      <c r="B342" s="1">
+        <v>0</v>
+      </c>
+      <c r="C342" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A343" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B343" s="1">
+        <v>1</v>
+      </c>
+      <c r="C343" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D343" s="1" t="s">
         <v>759</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" ht="15" customHeight="1">
-      <c r="A341" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="B341" s="1">
-        <v>1</v>
-      </c>
-      <c r="C341" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D341" s="1" t="s">
-        <v>760</v>
       </c>
     </row>
   </sheetData>
